--- a/Readandsummarized.xlsx
+++ b/Readandsummarized.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>HughesLiuZimmermann1981</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>ZEID</t>
+  </si>
+  <si>
+    <t>XXX</t>
   </si>
 </sst>
 </file>
@@ -498,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,6 +748,16 @@
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
